--- a/similarities/split_global/harmonic_similarity_timestamps_335.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_335.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,522 +484,534 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:32.874217', '0:00:37.657528')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:02:14.840000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=32.874217</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:00:07.160000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000'), ('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:01.640000', '0:00:10.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+          <t>('0:00:04.840000', '0:00:10.640000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=63.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=7.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:01:15.560000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:00:16.560000', '0:00:45.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:01:00.898000', '0:01:07.056000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14')]</t>
+          <t>('0:01:42.452811', '0:01:51.264784')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=102.452811</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07', '0:00:09.280000')]</t>
+          <t>('0:00:19.727000', '0:00:41.282000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:08.340000', '0:00:10.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=7.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_116</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['C:maj', 'E/3', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G', 'B', 'E:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:56.229000', '0:00:59.359000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:57.789229', '0:01:03.373628')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=56.229</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-116#t=57.789229</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Eb:7', 'Ab:7', 'Db:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
+          <t>('0:00:32.390000', '0:00:40.540000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.680000', '0:00:07.500000')]</t>
+          <t>('0:00:16.880000', '0:00:20.150000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=42.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=32.39</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=16.88</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:04.160000', '0:00:08.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:09.840000', '0:01:26.060000')]</t>
+          <t>('0:01:13.300000', '0:01:20.180000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+          <t>('0:00:08.350000', '0:00:11.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=69.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=73.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1009,177 +1021,189 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:37.820000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:01.540000', '0:00:04.240000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+          <t>('0:00:49.340000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=49.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3', 'Db:min/b3', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:17.737518', '0:00:26.514661')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:11.340000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=17.737518']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G:maj6', 'E:min7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj'], ['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Bb:maj6/5', 'G:min7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000'), ('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:27.290000', '0:00:30.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000'), ('0:00:19.140000', '0:00:21.620000')]</t>
+          <t>('0:00:05', '0:00:06.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=27.29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=5.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
